--- a/myapp/files/9_MethodComparePercent/Scenario 294.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 294.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>16199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.9413153212042</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.69491525423729</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14296</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.59578022297273</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.69491525423729</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15256</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.77009115008897</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.54237288135593</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>19752</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.58644732541671</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.96610169491525</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13039</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.3675418527799</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.69491525423729</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>940</v>
+        <v>9647</v>
       </c>
       <c r="F7" t="n">
-        <v>1.04083621224201</v>
+        <v>1.75164324363584</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.11864406779661</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3666</v>
+        <v>12156</v>
       </c>
       <c r="F8" t="n">
-        <v>4.05926122774382</v>
+        <v>2.20721211460943</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>2.54237288135593</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11922</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.16472382612485</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.96610169491525</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12014</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.18142862330682</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.38983050847458</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11746</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.13276682282021</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.11864406779661</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5832</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.05893888223118</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9778</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.77542942223191</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.27118644067797</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6968</v>
+        <v>22115</v>
       </c>
       <c r="F14" t="n">
-        <v>7.71547524138542</v>
+        <v>4.01550640955805</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>2.54237288135593</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>8368</v>
+        <v>27978</v>
       </c>
       <c r="F15" t="n">
-        <v>9.26565683408628</v>
+        <v>5.08007408214402</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1087,10 +1087,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>4.23728813559322</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>2867</v>
+        <v>21765</v>
       </c>
       <c r="F16" t="n">
-        <v>3.17455044733812</v>
+        <v>3.95195555071359</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2.96610169491525</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5832</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.05893888223118</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10131</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.83952500272361</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.27118644067797</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>19774</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.59044195082979</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>6.15384615384615</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.50847457627119</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7020</v>
+        <v>49183</v>
       </c>
       <c r="F20" t="n">
-        <v>7.77305341482859</v>
+        <v>8.93034825870647</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
@@ -1277,10 +1277,10 @@
         <v>18.4615384615385</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>12.2881355932203</v>
       </c>
       <c r="K20" t="n">
         <v>9</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2821</v>
+        <v>48670</v>
       </c>
       <c r="F21" t="n">
-        <v>3.12361590929223</v>
+        <v>8.83720085702872</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -1315,10 +1315,10 @@
         <v>13.8461538461538</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>11.0169491525424</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>3060</v>
+        <v>8964</v>
       </c>
       <c r="F22" t="n">
-        <v>3.38825405261759</v>
+        <v>1.62762828194792</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>4860</v>
+        <v>11952</v>
       </c>
       <c r="F23" t="n">
-        <v>5.38134467180441</v>
+        <v>2.17017104259723</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1.27118644067797</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>10440</v>
+        <v>29316</v>
       </c>
       <c r="F24" t="n">
-        <v>11.5599255912835</v>
+        <v>5.32301993681229</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>5.93220338983051</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>14068</v>
+        <v>64056</v>
       </c>
       <c r="F25" t="n">
-        <v>15.5771104615112</v>
+        <v>11.6308966118314</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>7.69230769230769</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J25" t="n">
-        <v>20</v>
+        <v>12.2881355932203</v>
       </c>
       <c r="K25" t="n">
         <v>10</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>25234</v>
+        <v>79367</v>
       </c>
       <c r="F26" t="n">
-        <v>27.9409159358668</v>
+        <v>14.410974325453</v>
       </c>
       <c r="G26" t="n">
         <v>18</v>
@@ -1505,10 +1505,10 @@
         <v>27.6923076923077</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J26" t="n">
-        <v>28</v>
+        <v>13.9830508474576</v>
       </c>
       <c r="K26" t="n">
         <v>18</v>
